--- a/src/test/resources/DataTestProvider.xlsx
+++ b/src/test/resources/DataTestProvider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\SQA_JuaraCoding\Selenium1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883E4E6B-02FC-4EEB-A3F0-56BE5459C343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE30707-3743-4809-BBEC-628F871FB77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="2985" windowWidth="21600" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>standard_user</t>
   </si>
   <si>
     <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>performance_glitch_user</t>
   </si>
   <si>
     <t>problem_user</t>
@@ -354,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,17 +373,9 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
